--- a/hw3/Graph/EGreedy/100.xlsx
+++ b/hw3/Graph/EGreedy/100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ROB537\hw3\Graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ROB537\hw3\Graph\EGreedy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3017,6 +3017,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Change</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Error/SD over times step </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7050,6 +7080,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7115,6 +7200,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>std value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8359,15 +8499,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8695,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612EB01-BE15-4A3B-B80C-E4D60FA411CE}">
   <dimension ref="A1:CW103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection sqref="A1:CW7"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CD11" sqref="CD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
